--- a/Cleaning/Energy Price/energy_price_cleaned.xlsx
+++ b/Cleaning/Energy Price/energy_price_cleaned.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10204"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://liveuclac-my.sharepoint.com/personal/zctpj17_ucl_ac_uk/Documents/ECON0053 Economics of Tax Policy/Grp Project/Quantitative/Cleaning/Energy Price/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="11_B61C049661172AD6A7FD9890E2AC9AB43B198F58" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EA3BD8A7-6BB8-E045-B5C0-DCB0DBC29034}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="11_B61C049661172AD6A7FD9890E2AC9AB43B198F58" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4A466CD8-F4FC-0441-B6E6-980EDCAE59FA}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="800" windowWidth="34760" windowHeight="21280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -130,6 +130,23 @@
   </cellStyles>
   <dxfs count="4">
     <dxf>
+      <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -158,23 +175,6 @@
         <bottom/>
       </border>
     </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-      </border>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -188,15 +188,11 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B986A99A-D5DB-CB44-814C-3F315D03DB0E}" name="Table1" displayName="Table1" ref="A1:E658" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="2" tableBorderDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B986A99A-D5DB-CB44-814C-3F315D03DB0E}" name="Table1" displayName="Table1" ref="A1:E658" totalsRowShown="0" headerRowDxfId="3" headerRowBorderDxfId="2" tableBorderDxfId="1">
   <autoFilter ref="A1:E658" xr:uid="{B986A99A-D5DB-CB44-814C-3F315D03DB0E}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{31034DB8-8A1A-BA4D-9A2C-F39C116A88AF}" name="REF_DATE" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{31034DB8-8A1A-BA4D-9A2C-F39C116A88AF}" name="REF_DATE" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{3724C85B-26FB-F54E-954A-35E9FBCAFB02}" name="Region"/>
     <tableColumn id="3" xr3:uid="{99277602-8EFC-4542-9C69-86FBCEB03274}" name="Type of fuel"/>
     <tableColumn id="4" xr3:uid="{42C87114-9BC1-AB45-A72B-9146F2972E89}" name="UOM"/>
@@ -496,7 +492,7 @@
   <dimension ref="A1:E658"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="171" workbookViewId="0">
-      <selection sqref="A1:E658"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -504,6 +500,7 @@
     <col min="1" max="1" width="22.83203125" customWidth="1"/>
     <col min="2" max="2" width="13.33203125" customWidth="1"/>
     <col min="3" max="3" width="45" customWidth="1"/>
+    <col min="4" max="4" width="23" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">

--- a/Cleaning/Energy Price/energy_price_cleaned.xlsx
+++ b/Cleaning/Energy Price/energy_price_cleaned.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://liveuclac-my.sharepoint.com/personal/zctpj17_ucl_ac_uk/Documents/ECON0053 Economics of Tax Policy/Grp Project/Quantitative/Cleaning/Energy Price/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="11_B61C049661172AD6A7FD9890E2AC9AB43B198F58" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4A466CD8-F4FC-0441-B6E6-980EDCAE59FA}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="11_B61C049661172AD6A7FD9890E2AC9AB43B198F58" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{046FB342-E528-A743-8539-CB178F726024}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="800" windowWidth="34760" windowHeight="21280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="800" windowWidth="34760" windowHeight="21180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -190,7 +190,23 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B986A99A-D5DB-CB44-814C-3F315D03DB0E}" name="Table1" displayName="Table1" ref="A1:E658" totalsRowShown="0" headerRowDxfId="3" headerRowBorderDxfId="2" tableBorderDxfId="1">
-  <autoFilter ref="A1:E658" xr:uid="{B986A99A-D5DB-CB44-814C-3F315D03DB0E}"/>
+  <autoFilter ref="A1:E658" xr:uid="{B986A99A-D5DB-CB44-814C-3F315D03DB0E}">
+    <filterColumn colId="0">
+      <filters>
+        <dateGroupItem year="2021" dateTimeGrouping="year"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="1">
+      <filters>
+        <filter val="Ontario"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="2">
+      <filters>
+        <filter val="Household heating fuel"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{31034DB8-8A1A-BA4D-9A2C-F39C116A88AF}" name="REF_DATE" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{3724C85B-26FB-F54E-954A-35E9FBCAFB02}" name="Region"/>
@@ -492,7 +508,7 @@
   <dimension ref="A1:E658"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="171" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="C284" sqref="C284"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -520,7 +536,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>43466</v>
       </c>
@@ -537,7 +553,7 @@
         <v>93.5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>43466</v>
       </c>
@@ -554,7 +570,7 @@
         <v>99.7</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>43466</v>
       </c>
@@ -571,7 +587,7 @@
         <v>89.9</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>43466</v>
       </c>
@@ -588,7 +604,7 @@
         <v>125.56666666666671</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>43466</v>
       </c>
@@ -605,7 +621,7 @@
         <v>105.7</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>43466</v>
       </c>
@@ -622,7 +638,7 @@
         <v>103.5</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>43466</v>
       </c>
@@ -639,7 +655,7 @@
         <v>93.75</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>43466</v>
       </c>
@@ -656,7 +672,7 @@
         <v>117.3</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>43466</v>
       </c>
@@ -673,7 +689,7 @@
         <v>124.9</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>43497</v>
       </c>
@@ -690,7 +706,7 @@
         <v>100.6</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>43497</v>
       </c>
@@ -707,7 +723,7 @@
         <v>110.5</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>43497</v>
       </c>
@@ -724,7 +740,7 @@
         <v>97.5</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>43497</v>
       </c>
@@ -741,7 +757,7 @@
         <v>123.8333333333333</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>43497</v>
       </c>
@@ -758,7 +774,7 @@
         <v>104.9666666666667</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>43497</v>
       </c>
@@ -775,7 +791,7 @@
         <v>100.4</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>43497</v>
       </c>
@@ -792,7 +808,7 @@
         <v>101.4</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>43497</v>
       </c>
@@ -809,7 +825,7 @@
         <v>117.3</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>43497</v>
       </c>
@@ -826,7 +842,7 @@
         <v>124.9</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>43525</v>
       </c>
@@ -843,7 +859,7 @@
         <v>111.9</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>43525</v>
       </c>
@@ -860,7 +876,7 @@
         <v>114.8</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>43525</v>
       </c>
@@ -877,7 +893,7 @@
         <v>108.4</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>43525</v>
       </c>
@@ -894,7 +910,7 @@
         <v>130.06666666666669</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>43525</v>
       </c>
@@ -911,7 +927,7 @@
         <v>116.8666666666667</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>43525</v>
       </c>
@@ -928,7 +944,7 @@
         <v>112.05</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>43525</v>
       </c>
@@ -945,7 +961,7 @@
         <v>111.05</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>43525</v>
       </c>
@@ -962,7 +978,7 @@
         <v>120.4</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>43525</v>
       </c>
@@ -979,7 +995,7 @@
         <v>129.80000000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>43556</v>
       </c>
@@ -996,7 +1012,7 @@
         <v>120.7</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>43556</v>
       </c>
@@ -1013,7 +1029,7 @@
         <v>122.6</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>43556</v>
       </c>
@@ -1030,7 +1046,7 @@
         <v>125.1</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>43556</v>
       </c>
@@ -1047,7 +1063,7 @@
         <v>138.76666666666671</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>43556</v>
       </c>
@@ -1064,7 +1080,7 @@
         <v>130.9</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>43556</v>
       </c>
@@ -1081,7 +1097,7 @@
         <v>118.95</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>43556</v>
       </c>
@@ -1098,7 +1114,7 @@
         <v>127.55</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>43556</v>
       </c>
@@ -1115,7 +1131,7 @@
         <v>124.3</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>43556</v>
       </c>
@@ -1132,7 +1148,7 @@
         <v>137.9</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>43586</v>
       </c>
@@ -1149,7 +1165,7 @@
         <v>119.25</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>43586</v>
       </c>
@@ -1166,7 +1182,7 @@
         <v>121.2</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>43586</v>
       </c>
@@ -1183,7 +1199,7 @@
         <v>122.6</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>43586</v>
       </c>
@@ -1200,7 +1216,7 @@
         <v>138.80000000000001</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>43586</v>
       </c>
@@ -1217,7 +1233,7 @@
         <v>133.6</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>43586</v>
       </c>
@@ -1234,7 +1250,7 @@
         <v>117.35</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>43586</v>
       </c>
@@ -1251,7 +1267,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>43586</v>
       </c>
@@ -1268,7 +1284,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>43586</v>
       </c>
@@ -1285,7 +1301,7 @@
         <v>137.69999999999999</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>43617</v>
       </c>
@@ -1302,7 +1318,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>43617</v>
       </c>
@@ -1319,7 +1335,7 @@
         <v>107.6</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>43617</v>
       </c>
@@ -1336,7 +1352,7 @@
         <v>113.1</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>43617</v>
       </c>
@@ -1353,7 +1369,7 @@
         <v>135.16666666666671</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>43617</v>
       </c>
@@ -1370,7 +1386,7 @@
         <v>125.9666666666667</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>43617</v>
       </c>
@@ -1387,7 +1403,7 @@
         <v>107.4</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>43617</v>
       </c>
@@ -1404,7 +1420,7 @@
         <v>116.1</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>43617</v>
       </c>
@@ -1421,7 +1437,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>43617</v>
       </c>
@@ -1438,7 +1454,7 @@
         <v>137.69999999999999</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>43647</v>
       </c>
@@ -1455,7 +1471,7 @@
         <v>106.9</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>43647</v>
       </c>
@@ -1472,7 +1488,7 @@
         <v>109.7</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>43647</v>
       </c>
@@ -1489,7 +1505,7 @@
         <v>114.7</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>43647</v>
       </c>
@@ -1506,7 +1522,7 @@
         <v>132.33333333333329</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>43647</v>
       </c>
@@ -1523,7 +1539,7 @@
         <v>128.8666666666667</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>43647</v>
       </c>
@@ -1540,7 +1556,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>43647</v>
       </c>
@@ -1557,7 +1573,7 @@
         <v>116.65</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>43647</v>
       </c>
@@ -1574,7 +1590,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>43647</v>
       </c>
@@ -1591,7 +1607,7 @@
         <v>142.4</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>43678</v>
       </c>
@@ -1608,7 +1624,7 @@
         <v>101.05</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>43678</v>
       </c>
@@ -1625,7 +1641,7 @@
         <v>109.2</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>43678</v>
       </c>
@@ -1642,7 +1658,7 @@
         <v>107.7</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>43678</v>
       </c>
@@ -1659,7 +1675,7 @@
         <v>130.9</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>43678</v>
       </c>
@@ -1676,7 +1692,7 @@
         <v>123.3333333333333</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>43678</v>
       </c>
@@ -1693,7 +1709,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>43678</v>
       </c>
@@ -1710,7 +1726,7 @@
         <v>109.8</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>43678</v>
       </c>
@@ -1727,7 +1743,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>43678</v>
       </c>
@@ -1744,7 +1760,7 @@
         <v>142.9</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>43709</v>
       </c>
@@ -1761,7 +1777,7 @@
         <v>100.7</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>43709</v>
       </c>
@@ -1778,7 +1794,7 @@
         <v>110.2</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>43709</v>
       </c>
@@ -1795,7 +1811,7 @@
         <v>108.2</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>43709</v>
       </c>
@@ -1812,7 +1828,7 @@
         <v>129.86666666666659</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>43709</v>
       </c>
@@ -1829,7 +1845,7 @@
         <v>121.43333333333329</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>43709</v>
       </c>
@@ -1846,7 +1862,7 @@
         <v>107.15</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>43709</v>
       </c>
@@ -1863,7 +1879,7 @@
         <v>108.2</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>43709</v>
       </c>
@@ -1880,7 +1896,7 @@
         <v>126.7</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>43709</v>
       </c>
@@ -1897,7 +1913,7 @@
         <v>142.80000000000001</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>43739</v>
       </c>
@@ -1914,7 +1930,7 @@
         <v>99.300000000000011</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>43739</v>
       </c>
@@ -1931,7 +1947,7 @@
         <v>118.8</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>43739</v>
       </c>
@@ -1948,7 +1964,7 @@
         <v>110.9</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>43739</v>
       </c>
@@ -1965,7 +1981,7 @@
         <v>136.83333333333329</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>43739</v>
       </c>
@@ -1982,7 +1998,7 @@
         <v>120.93333333333329</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>43739</v>
       </c>
@@ -1999,7 +2015,7 @@
         <v>117.15</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>43739</v>
       </c>
@@ -2016,7 +2032,7 @@
         <v>110.35</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>43739</v>
       </c>
@@ -2033,7 +2049,7 @@
         <v>129.5</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>43739</v>
       </c>
@@ -2050,7 +2066,7 @@
         <v>142.9</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>43770</v>
       </c>
@@ -2067,7 +2083,7 @@
         <v>96.5</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>43770</v>
       </c>
@@ -2084,7 +2100,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>43770</v>
       </c>
@@ -2101,7 +2117,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>43770</v>
       </c>
@@ -2118,7 +2134,7 @@
         <v>134.56666666666669</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>43770</v>
       </c>
@@ -2135,7 +2151,7 @@
         <v>119.5333333333333</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
         <v>43770</v>
       </c>
@@ -2152,7 +2168,7 @@
         <v>120.05</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
         <v>43770</v>
       </c>
@@ -2169,7 +2185,7 @@
         <v>105.15</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <v>43770</v>
       </c>
@@ -2186,7 +2202,7 @@
         <v>131.30000000000001</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <v>43770</v>
       </c>
@@ -2203,7 +2219,7 @@
         <v>142.9</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
         <v>43800</v>
       </c>
@@ -2220,7 +2236,7 @@
         <v>97.6</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
         <v>43800</v>
       </c>
@@ -2237,7 +2253,7 @@
         <v>125.9</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
         <v>43800</v>
       </c>
@@ -2254,7 +2270,7 @@
         <v>103.3</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
         <v>43800</v>
       </c>
@@ -2271,7 +2287,7 @@
         <v>136.5</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
         <v>43800</v>
       </c>
@@ -2288,7 +2304,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
         <v>43800</v>
       </c>
@@ -2305,7 +2321,7 @@
         <v>121.5</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
         <v>43800</v>
       </c>
@@ -2322,7 +2338,7 @@
         <v>107.85</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
         <v>43800</v>
       </c>
@@ -2339,7 +2355,7 @@
         <v>136.9</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
         <v>43800</v>
       </c>
@@ -2356,7 +2372,7 @@
         <v>142.69999999999999</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
         <v>43831</v>
       </c>
@@ -2373,7 +2389,7 @@
         <v>100.2</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
         <v>43831</v>
       </c>
@@ -2390,7 +2406,7 @@
         <v>121.1</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
         <v>43831</v>
       </c>
@@ -2407,7 +2423,7 @@
         <v>101.6</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
         <v>43831</v>
       </c>
@@ -2424,7 +2440,7 @@
         <v>137.9</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
         <v>43831</v>
       </c>
@@ -2441,7 +2457,7 @@
         <v>117.93333333333329</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
         <v>43831</v>
       </c>
@@ -2458,7 +2474,7 @@
         <v>117.7</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
         <v>43831</v>
       </c>
@@ -2475,7 +2491,7 @@
         <v>109.9</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
         <v>43831</v>
       </c>
@@ -2492,7 +2508,7 @@
         <v>133.69999999999999</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
         <v>43831</v>
       </c>
@@ -2509,7 +2525,7 @@
         <v>142.9</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
         <v>43862</v>
       </c>
@@ -2526,7 +2542,7 @@
         <v>97.7</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
         <v>43862</v>
       </c>
@@ -2543,7 +2559,7 @@
         <v>108.9</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
         <v>43862</v>
       </c>
@@ -2560,7 +2576,7 @@
         <v>102.5</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
         <v>43862</v>
       </c>
@@ -2577,7 +2593,7 @@
         <v>131.4</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
         <v>43862</v>
       </c>
@@ -2594,7 +2610,7 @@
         <v>115.1333333333333</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
         <v>43862</v>
       </c>
@@ -2611,7 +2627,7 @@
         <v>101.45</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
         <v>43862</v>
       </c>
@@ -2628,7 +2644,7 @@
         <v>106.1</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
         <v>43862</v>
       </c>
@@ -2645,7 +2661,7 @@
         <v>130.69999999999999</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
         <v>43862</v>
       </c>
@@ -2662,7 +2678,7 @@
         <v>142.5</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
         <v>43891</v>
       </c>
@@ -2679,7 +2695,7 @@
         <v>78.099999999999994</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
         <v>43891</v>
       </c>
@@ -2696,7 +2712,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
         <v>43891</v>
       </c>
@@ -2713,7 +2729,7 @@
         <v>84.5</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
         <v>43891</v>
       </c>
@@ -2730,7 +2746,7 @@
         <v>126.4</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
         <v>43891</v>
       </c>
@@ -2747,7 +2763,7 @@
         <v>93.766666666666666</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
         <v>43891</v>
       </c>
@@ -2764,7 +2780,7 @@
         <v>101.25</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
         <v>43891</v>
       </c>
@@ -2781,7 +2797,7 @@
         <v>86.800000000000011</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
         <v>43891</v>
       </c>
@@ -2798,7 +2814,7 @@
         <v>124.3</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
         <v>43891</v>
       </c>
@@ -2815,7 +2831,7 @@
         <v>125.5</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
         <v>43922</v>
       </c>
@@ -2832,7 +2848,7 @@
         <v>64.3</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A138" s="1">
         <v>43922</v>
       </c>
@@ -2849,7 +2865,7 @@
         <v>89.8</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A139" s="1">
         <v>43922</v>
       </c>
@@ -2866,7 +2882,7 @@
         <v>67.7</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A140" s="1">
         <v>43922</v>
       </c>
@@ -2883,7 +2899,7 @@
         <v>115.6</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A141" s="1">
         <v>43922</v>
       </c>
@@ -2900,7 +2916,7 @@
         <v>80.766666666666666</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A142" s="1">
         <v>43922</v>
       </c>
@@ -2917,7 +2933,7 @@
         <v>85.1</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A143" s="1">
         <v>43922</v>
       </c>
@@ -2934,7 +2950,7 @@
         <v>68.650000000000006</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A144" s="1">
         <v>43922</v>
       </c>
@@ -2951,7 +2967,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A145" s="1">
         <v>43922</v>
       </c>
@@ -2968,7 +2984,7 @@
         <v>100.9</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A146" s="1">
         <v>43952</v>
       </c>
@@ -2985,7 +3001,7 @@
         <v>85.25</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A147" s="1">
         <v>43952</v>
       </c>
@@ -3002,7 +3018,7 @@
         <v>79.400000000000006</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A148" s="1">
         <v>43952</v>
       </c>
@@ -3019,7 +3035,7 @@
         <v>85.2</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A149" s="1">
         <v>43952</v>
       </c>
@@ -3036,7 +3052,7 @@
         <v>107.3666666666667</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A150" s="1">
         <v>43952</v>
       </c>
@@ -3053,7 +3069,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A151" s="1">
         <v>43952</v>
       </c>
@@ -3070,7 +3086,7 @@
         <v>77.400000000000006</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A152" s="1">
         <v>43952</v>
       </c>
@@ -3087,7 +3103,7 @@
         <v>86.800000000000011</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A153" s="1">
         <v>43952</v>
       </c>
@@ -3104,7 +3120,7 @@
         <v>96.4</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A154" s="1">
         <v>43952</v>
       </c>
@@ -3121,7 +3137,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A155" s="1">
         <v>43983</v>
       </c>
@@ -3138,7 +3154,7 @@
         <v>93.55</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A156" s="1">
         <v>43983</v>
       </c>
@@ -3155,7 +3171,7 @@
         <v>86.5</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A157" s="1">
         <v>43983</v>
       </c>
@@ -3172,7 +3188,7 @@
         <v>95.5</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A158" s="1">
         <v>43983</v>
       </c>
@@ -3189,7 +3205,7 @@
         <v>108.8</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A159" s="1">
         <v>43983</v>
       </c>
@@ -3206,7 +3222,7 @@
         <v>103.7</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A160" s="1">
         <v>43983</v>
       </c>
@@ -3223,7 +3239,7 @@
         <v>84.85</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A161" s="1">
         <v>43983</v>
       </c>
@@ -3240,7 +3256,7 @@
         <v>96.6</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A162" s="1">
         <v>43983</v>
       </c>
@@ -3257,7 +3273,7 @@
         <v>101.2</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A163" s="1">
         <v>43983</v>
       </c>
@@ -3274,7 +3290,7 @@
         <v>115.3</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A164" s="1">
         <v>44013</v>
       </c>
@@ -3291,7 +3307,7 @@
         <v>96.2</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A165" s="1">
         <v>44013</v>
       </c>
@@ -3308,7 +3324,7 @@
         <v>93.1</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A166" s="1">
         <v>44013</v>
       </c>
@@ -3325,7 +3341,7 @@
         <v>99.9</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A167" s="1">
         <v>44013</v>
       </c>
@@ -3342,7 +3358,7 @@
         <v>111.73333333333331</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A168" s="1">
         <v>44013</v>
       </c>
@@ -3359,7 +3375,7 @@
         <v>108.56666666666671</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A169" s="1">
         <v>44013</v>
       </c>
@@ -3376,7 +3392,7 @@
         <v>87.449999999999989</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A170" s="1">
         <v>44013</v>
       </c>
@@ -3393,7 +3409,7 @@
         <v>102.85</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A171" s="1">
         <v>44013</v>
       </c>
@@ -3410,7 +3426,7 @@
         <v>107.1</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A172" s="1">
         <v>44013</v>
       </c>
@@ -3427,7 +3443,7 @@
         <v>119.9</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A173" s="1">
         <v>44044</v>
       </c>
@@ -3444,7 +3460,7 @@
         <v>94.85</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A174" s="1">
         <v>44044</v>
       </c>
@@ -3461,7 +3477,7 @@
         <v>90.8</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A175" s="1">
         <v>44044</v>
       </c>
@@ -3478,7 +3494,7 @@
         <v>97.8</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A176" s="1">
         <v>44044</v>
       </c>
@@ -3495,7 +3511,7 @@
         <v>112.1333333333333</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A177" s="1">
         <v>44044</v>
       </c>
@@ -3512,7 +3528,7 @@
         <v>107.8</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A178" s="1">
         <v>44044</v>
       </c>
@@ -3529,7 +3545,7 @@
         <v>90.35</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A179" s="1">
         <v>44044</v>
       </c>
@@ -3546,7 +3562,7 @@
         <v>101.55</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A180" s="1">
         <v>44044</v>
       </c>
@@ -3563,7 +3579,7 @@
         <v>107.1</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A181" s="1">
         <v>44044</v>
       </c>
@@ -3580,7 +3596,7 @@
         <v>119.9</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A182" s="1">
         <v>44075</v>
       </c>
@@ -3597,7 +3613,7 @@
         <v>101.85</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A183" s="1">
         <v>44075</v>
       </c>
@@ -3614,7 +3630,7 @@
         <v>89.2</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A184" s="1">
         <v>44075</v>
       </c>
@@ -3631,7 +3647,7 @@
         <v>96.7</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A185" s="1">
         <v>44075</v>
       </c>
@@ -3648,7 +3664,7 @@
         <v>111.3</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A186" s="1">
         <v>44075</v>
       </c>
@@ -3665,7 +3681,7 @@
         <v>106.43333333333329</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A187" s="1">
         <v>44075</v>
       </c>
@@ -3682,7 +3698,7 @@
         <v>86.15</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A188" s="1">
         <v>44075</v>
       </c>
@@ -3699,7 +3715,7 @@
         <v>103.2</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A189" s="1">
         <v>44075</v>
       </c>
@@ -3716,7 +3732,7 @@
         <v>105.7</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A190" s="1">
         <v>44075</v>
       </c>
@@ -3733,7 +3749,7 @@
         <v>119.8</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A191" s="1">
         <v>44105</v>
       </c>
@@ -3750,7 +3766,7 @@
         <v>98.25</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A192" s="1">
         <v>44105</v>
       </c>
@@ -3767,7 +3783,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A193" s="1">
         <v>44105</v>
       </c>
@@ -3784,7 +3800,7 @@
         <v>101.1</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A194" s="1">
         <v>44105</v>
       </c>
@@ -3801,7 +3817,7 @@
         <v>113.9666666666667</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A195" s="1">
         <v>44105</v>
       </c>
@@ -3818,7 +3834,7 @@
         <v>105.6</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A196" s="1">
         <v>44105</v>
       </c>
@@ -3835,7 +3851,7 @@
         <v>88.8</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A197" s="1">
         <v>44105</v>
       </c>
@@ -3852,7 +3868,7 @@
         <v>99.9</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A198" s="1">
         <v>44105</v>
       </c>
@@ -3869,7 +3885,7 @@
         <v>107.4</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A199" s="1">
         <v>44105</v>
       </c>
@@ -3886,7 +3902,7 @@
         <v>119.9</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A200" s="1">
         <v>44136</v>
       </c>
@@ -3903,7 +3919,7 @@
         <v>96.95</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A201" s="1">
         <v>44136</v>
       </c>
@@ -3920,7 +3936,7 @@
         <v>96.7</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A202" s="1">
         <v>44136</v>
       </c>
@@ -3937,7 +3953,7 @@
         <v>95.9</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A203" s="1">
         <v>44136</v>
       </c>
@@ -3954,7 +3970,7 @@
         <v>113.56666666666671</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A204" s="1">
         <v>44136</v>
       </c>
@@ -3971,7 +3987,7 @@
         <v>103.76666666666669</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A205" s="1">
         <v>44136</v>
       </c>
@@ -3988,7 +4004,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A206" s="1">
         <v>44136</v>
       </c>
@@ -4005,7 +4021,7 @@
         <v>97.95</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A207" s="1">
         <v>44136</v>
       </c>
@@ -4022,7 +4038,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A208" s="1">
         <v>44136</v>
       </c>
@@ -4039,7 +4055,7 @@
         <v>119.9</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A209" s="1">
         <v>44166</v>
       </c>
@@ -4056,7 +4072,7 @@
         <v>98.300000000000011</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A210" s="1">
         <v>44166</v>
       </c>
@@ -4073,7 +4089,7 @@
         <v>97.2</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A211" s="1">
         <v>44166</v>
       </c>
@@ -4090,7 +4106,7 @@
         <v>95.7</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A212" s="1">
         <v>44166</v>
       </c>
@@ -4107,7 +4123,7 @@
         <v>119.5333333333333</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A213" s="1">
         <v>44166</v>
       </c>
@@ -4124,7 +4140,7 @@
         <v>107.1333333333333</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A214" s="1">
         <v>44166</v>
       </c>
@@ -4141,7 +4157,7 @@
         <v>96.449999999999989</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A215" s="1">
         <v>44166</v>
       </c>
@@ -4158,7 +4174,7 @@
         <v>99.9</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A216" s="1">
         <v>44166</v>
       </c>
@@ -4175,7 +4191,7 @@
         <v>114.3</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A217" s="1">
         <v>44166</v>
       </c>
@@ -4192,7 +4208,7 @@
         <v>119.9</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A218" s="1">
         <v>44197</v>
       </c>
@@ -4209,7 +4225,7 @@
         <v>101.85</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A219" s="1">
         <v>44197</v>
       </c>
@@ -4226,7 +4242,7 @@
         <v>105.6</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A220" s="1">
         <v>44197</v>
       </c>
@@ -4260,7 +4276,7 @@
         <v>127.1333333333333</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A222" s="1">
         <v>44197</v>
       </c>
@@ -4277,7 +4293,7 @@
         <v>114.4</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A223" s="1">
         <v>44197</v>
       </c>
@@ -4294,7 +4310,7 @@
         <v>97.449999999999989</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A224" s="1">
         <v>44197</v>
       </c>
@@ -4311,7 +4327,7 @@
         <v>103.95</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A225" s="1">
         <v>44197</v>
       </c>
@@ -4328,7 +4344,7 @@
         <v>116.4</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A226" s="1">
         <v>44197</v>
       </c>
@@ -4345,7 +4361,7 @@
         <v>124.1</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A227" s="1">
         <v>44228</v>
       </c>
@@ -4362,7 +4378,7 @@
         <v>110.15</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A228" s="1">
         <v>44228</v>
       </c>
@@ -4379,7 +4395,7 @@
         <v>110.7</v>
       </c>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A229" s="1">
         <v>44228</v>
       </c>
@@ -4413,7 +4429,7 @@
         <v>129.56666666666669</v>
       </c>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A231" s="1">
         <v>44228</v>
       </c>
@@ -4430,7 +4446,7 @@
         <v>120.3666666666667</v>
       </c>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A232" s="1">
         <v>44228</v>
       </c>
@@ -4447,7 +4463,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A233" s="1">
         <v>44228</v>
       </c>
@@ -4464,7 +4480,7 @@
         <v>110.45</v>
       </c>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A234" s="1">
         <v>44228</v>
       </c>
@@ -4481,7 +4497,7 @@
         <v>119.4</v>
       </c>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A235" s="1">
         <v>44228</v>
       </c>
@@ -4498,7 +4514,7 @@
         <v>127.1</v>
       </c>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A236" s="1">
         <v>44256</v>
       </c>
@@ -4515,7 +4531,7 @@
         <v>115.9</v>
       </c>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A237" s="1">
         <v>44256</v>
       </c>
@@ -4532,7 +4548,7 @@
         <v>115.2</v>
       </c>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A238" s="1">
         <v>44256</v>
       </c>
@@ -4566,7 +4582,7 @@
         <v>133.26666666666671</v>
       </c>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A240" s="1">
         <v>44256</v>
       </c>
@@ -4583,7 +4599,7 @@
         <v>126.6</v>
       </c>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A241" s="1">
         <v>44256</v>
       </c>
@@ -4600,7 +4616,7 @@
         <v>114.7</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A242" s="1">
         <v>44256</v>
       </c>
@@ -4617,7 +4633,7 @@
         <v>120.05</v>
       </c>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A243" s="1">
         <v>44256</v>
       </c>
@@ -4634,7 +4650,7 @@
         <v>127.7</v>
       </c>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A244" s="1">
         <v>44256</v>
       </c>
@@ -4651,7 +4667,7 @@
         <v>132.80000000000001</v>
       </c>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A245" s="1">
         <v>44287</v>
       </c>
@@ -4668,7 +4684,7 @@
         <v>121.75</v>
       </c>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A246" s="1">
         <v>44287</v>
       </c>
@@ -4685,7 +4701,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A247" s="1">
         <v>44287</v>
       </c>
@@ -4719,7 +4735,7 @@
         <v>138.9</v>
       </c>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A249" s="1">
         <v>44287</v>
       </c>
@@ -4736,7 +4752,7 @@
         <v>129.93333333333331</v>
       </c>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A250" s="1">
         <v>44287</v>
       </c>
@@ -4753,7 +4769,7 @@
         <v>107.65</v>
       </c>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A251" s="1">
         <v>44287</v>
       </c>
@@ -4770,7 +4786,7 @@
         <v>127.2</v>
       </c>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A252" s="1">
         <v>44287</v>
       </c>
@@ -4787,7 +4803,7 @@
         <v>131.69999999999999</v>
       </c>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A253" s="1">
         <v>44287</v>
       </c>
@@ -4804,7 +4820,7 @@
         <v>139.80000000000001</v>
       </c>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A254" s="1">
         <v>44317</v>
       </c>
@@ -4821,7 +4837,7 @@
         <v>125.35</v>
       </c>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A255" s="1">
         <v>44317</v>
       </c>
@@ -4838,7 +4854,7 @@
         <v>116.9</v>
       </c>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A256" s="1">
         <v>44317</v>
       </c>
@@ -4872,7 +4888,7 @@
         <v>138.83333333333329</v>
       </c>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A258" s="1">
         <v>44317</v>
       </c>
@@ -4889,7 +4905,7 @@
         <v>132.8666666666667</v>
       </c>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A259" s="1">
         <v>44317</v>
       </c>
@@ -4906,7 +4922,7 @@
         <v>108.85</v>
       </c>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A260" s="1">
         <v>44317</v>
       </c>
@@ -4923,7 +4939,7 @@
         <v>126.15</v>
       </c>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A261" s="1">
         <v>44317</v>
       </c>
@@ -4940,7 +4956,7 @@
         <v>129.69999999999999</v>
       </c>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A262" s="1">
         <v>44317</v>
       </c>
@@ -4957,7 +4973,7 @@
         <v>141.6</v>
       </c>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A263" s="1">
         <v>44348</v>
       </c>
@@ -4974,7 +4990,7 @@
         <v>127.95</v>
       </c>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A264" s="1">
         <v>44348</v>
       </c>
@@ -4991,7 +5007,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A265" s="1">
         <v>44348</v>
       </c>
@@ -5025,7 +5041,7 @@
         <v>139.4666666666667</v>
       </c>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A267" s="1">
         <v>44348</v>
       </c>
@@ -5042,7 +5058,7 @@
         <v>134.6333333333333</v>
       </c>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A268" s="1">
         <v>44348</v>
       </c>
@@ -5059,7 +5075,7 @@
         <v>111.7</v>
       </c>
     </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A269" s="1">
         <v>44348</v>
       </c>
@@ -5076,7 +5092,7 @@
         <v>126.75</v>
       </c>
     </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A270" s="1">
         <v>44348</v>
       </c>
@@ -5093,7 +5109,7 @@
         <v>131.80000000000001</v>
       </c>
     </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A271" s="1">
         <v>44348</v>
       </c>
@@ -5110,7 +5126,7 @@
         <v>144.9</v>
       </c>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A272" s="1">
         <v>44378</v>
       </c>
@@ -5127,7 +5143,7 @@
         <v>134.30000000000001</v>
       </c>
     </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A273" s="1">
         <v>44378</v>
       </c>
@@ -5144,7 +5160,7 @@
         <v>115.8</v>
       </c>
     </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A274" s="1">
         <v>44378</v>
       </c>
@@ -5178,7 +5194,7 @@
         <v>139.76666666666671</v>
       </c>
     </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A276" s="1">
         <v>44378</v>
       </c>
@@ -5195,7 +5211,7 @@
         <v>139.1</v>
       </c>
     </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A277" s="1">
         <v>44378</v>
       </c>
@@ -5212,7 +5228,7 @@
         <v>109.75</v>
       </c>
     </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A278" s="1">
         <v>44378</v>
       </c>
@@ -5229,7 +5245,7 @@
         <v>131.55000000000001</v>
       </c>
     </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A279" s="1">
         <v>44378</v>
       </c>
@@ -5246,7 +5262,7 @@
         <v>132.5</v>
       </c>
     </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A280" s="1">
         <v>44378</v>
       </c>
@@ -5263,7 +5279,7 @@
         <v>148.9</v>
       </c>
     </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A281" s="1">
         <v>44409</v>
       </c>
@@ -5280,7 +5296,7 @@
         <v>133.75</v>
       </c>
     </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A282" s="1">
         <v>44409</v>
       </c>
@@ -5297,7 +5313,7 @@
         <v>115.9</v>
       </c>
     </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A283" s="1">
         <v>44409</v>
       </c>
@@ -5331,7 +5347,7 @@
         <v>139.9666666666667</v>
       </c>
     </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A285" s="1">
         <v>44409</v>
       </c>
@@ -5348,7 +5364,7 @@
         <v>139.86666666666659</v>
       </c>
     </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A286" s="1">
         <v>44409</v>
       </c>
@@ -5365,7 +5381,7 @@
         <v>110.9</v>
       </c>
     </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A287" s="1">
         <v>44409</v>
       </c>
@@ -5382,7 +5398,7 @@
         <v>131.55000000000001</v>
       </c>
     </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A288" s="1">
         <v>44409</v>
       </c>
@@ -5399,7 +5415,7 @@
         <v>128.30000000000001</v>
       </c>
     </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A289" s="1">
         <v>44409</v>
       </c>
@@ -5416,7 +5432,7 @@
         <v>154.6</v>
       </c>
     </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A290" s="1">
         <v>44440</v>
       </c>
@@ -5433,7 +5449,7 @@
         <v>131.30000000000001</v>
       </c>
     </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A291" s="1">
         <v>44440</v>
       </c>
@@ -5450,7 +5466,7 @@
         <v>121.7</v>
       </c>
     </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A292" s="1">
         <v>44440</v>
       </c>
@@ -5484,7 +5500,7 @@
         <v>142.5333333333333</v>
       </c>
     </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A294" s="1">
         <v>44440</v>
       </c>
@@ -5501,7 +5517,7 @@
         <v>140.33333333333329</v>
       </c>
     </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A295" s="1">
         <v>44440</v>
       </c>
@@ -5518,7 +5534,7 @@
         <v>113.95</v>
       </c>
     </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A296" s="1">
         <v>44440</v>
       </c>
@@ -5535,7 +5551,7 @@
         <v>131.75</v>
       </c>
     </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A297" s="1">
         <v>44440</v>
       </c>
@@ -5552,7 +5568,7 @@
         <v>133.5</v>
       </c>
     </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A298" s="1">
         <v>44440</v>
       </c>
@@ -5569,7 +5585,7 @@
         <v>155.80000000000001</v>
       </c>
     </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A299" s="1">
         <v>44470</v>
       </c>
@@ -5586,7 +5602,7 @@
         <v>139.55000000000001</v>
       </c>
     </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A300" s="1">
         <v>44470</v>
       </c>
@@ -5603,7 +5619,7 @@
         <v>134.6</v>
       </c>
     </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A301" s="1">
         <v>44470</v>
       </c>
@@ -5637,7 +5653,7 @@
         <v>152.4</v>
       </c>
     </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A303" s="1">
         <v>44470</v>
       </c>
@@ -5654,7 +5670,7 @@
         <v>147.5</v>
       </c>
     </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A304" s="1">
         <v>44470</v>
       </c>
@@ -5671,7 +5687,7 @@
         <v>127.25</v>
       </c>
     </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A305" s="1">
         <v>44470</v>
       </c>
@@ -5688,7 +5704,7 @@
         <v>141.44999999999999</v>
       </c>
     </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A306" s="1">
         <v>44470</v>
       </c>
@@ -5705,7 +5721,7 @@
         <v>140.6</v>
       </c>
     </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A307" s="1">
         <v>44470</v>
       </c>
@@ -5722,7 +5738,7 @@
         <v>155.9</v>
       </c>
     </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A308" s="1">
         <v>44501</v>
       </c>
@@ -5739,7 +5755,7 @@
         <v>138.94999999999999</v>
       </c>
     </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A309" s="1">
         <v>44501</v>
       </c>
@@ -5756,7 +5772,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A310" s="1">
         <v>44501</v>
       </c>
@@ -5790,7 +5806,7 @@
         <v>154.23333333333329</v>
       </c>
     </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A312" s="1">
         <v>44501</v>
       </c>
@@ -5807,7 +5823,7 @@
         <v>146.9</v>
       </c>
     </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A313" s="1">
         <v>44501</v>
       </c>
@@ -5824,7 +5840,7 @@
         <v>126.5</v>
       </c>
     </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A314" s="1">
         <v>44501</v>
       </c>
@@ -5841,7 +5857,7 @@
         <v>143.19999999999999</v>
       </c>
     </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A315" s="1">
         <v>44501</v>
       </c>
@@ -5858,7 +5874,7 @@
         <v>139.80000000000001</v>
       </c>
     </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A316" s="1">
         <v>44501</v>
       </c>
@@ -5875,7 +5891,7 @@
         <v>155.9</v>
       </c>
     </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A317" s="1">
         <v>44531</v>
       </c>
@@ -5892,7 +5908,7 @@
         <v>135.05000000000001</v>
       </c>
     </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A318" s="1">
         <v>44531</v>
       </c>
@@ -5909,7 +5925,7 @@
         <v>123.9</v>
       </c>
     </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A319" s="1">
         <v>44531</v>
       </c>
@@ -5943,7 +5959,7 @@
         <v>155.8666666666667</v>
       </c>
     </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A321" s="1">
         <v>44531</v>
       </c>
@@ -5960,7 +5976,7 @@
         <v>139.16666666666671</v>
       </c>
     </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A322" s="1">
         <v>44531</v>
       </c>
@@ -5977,7 +5993,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A323" s="1">
         <v>44531</v>
       </c>
@@ -5994,7 +6010,7 @@
         <v>130.25</v>
       </c>
     </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A324" s="1">
         <v>44531</v>
       </c>
@@ -6011,7 +6027,7 @@
         <v>145.1</v>
       </c>
     </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A325" s="1">
         <v>44531</v>
       </c>
@@ -6028,7 +6044,7 @@
         <v>155.9</v>
       </c>
     </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A326" s="1">
         <v>44562</v>
       </c>
@@ -6045,7 +6061,7 @@
         <v>136.30000000000001</v>
       </c>
     </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A327" s="1">
         <v>44562</v>
       </c>
@@ -6062,7 +6078,7 @@
         <v>133.6</v>
       </c>
     </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A328" s="1">
         <v>44562</v>
       </c>
@@ -6079,7 +6095,7 @@
         <v>138.5</v>
       </c>
     </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A329" s="1">
         <v>44562</v>
       </c>
@@ -6096,7 +6112,7 @@
         <v>164.7</v>
       </c>
     </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A330" s="1">
         <v>44562</v>
       </c>
@@ -6113,7 +6129,7 @@
         <v>146.76666666666671</v>
       </c>
     </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A331" s="1">
         <v>44562</v>
       </c>
@@ -6130,7 +6146,7 @@
         <v>131.30000000000001</v>
       </c>
     </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A332" s="1">
         <v>44562</v>
       </c>
@@ -6147,7 +6163,7 @@
         <v>136.35</v>
       </c>
     </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A333" s="1">
         <v>44562</v>
       </c>
@@ -6164,7 +6180,7 @@
         <v>147.5</v>
       </c>
     </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A334" s="1">
         <v>44562</v>
       </c>
@@ -6181,7 +6197,7 @@
         <v>157.19999999999999</v>
       </c>
     </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A335" s="1">
         <v>44593</v>
       </c>
@@ -6198,7 +6214,7 @@
         <v>143.80000000000001</v>
       </c>
     </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A336" s="1">
         <v>44593</v>
       </c>
@@ -6215,7 +6231,7 @@
         <v>145.5</v>
       </c>
     </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A337" s="1">
         <v>44593</v>
       </c>
@@ -6232,7 +6248,7 @@
         <v>147.1</v>
       </c>
     </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A338" s="1">
         <v>44593</v>
       </c>
@@ -6249,7 +6265,7 @@
         <v>176.43333333333331</v>
       </c>
     </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A339" s="1">
         <v>44593</v>
       </c>
@@ -6266,7 +6282,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A340" s="1">
         <v>44593</v>
       </c>
@@ -6283,7 +6299,7 @@
         <v>140.80000000000001</v>
       </c>
     </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A341" s="1">
         <v>44593</v>
       </c>
@@ -6300,7 +6316,7 @@
         <v>145.80000000000001</v>
       </c>
     </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A342" s="1">
         <v>44593</v>
       </c>
@@ -6317,7 +6333,7 @@
         <v>156.6</v>
       </c>
     </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A343" s="1">
         <v>44593</v>
       </c>
@@ -6334,7 +6350,7 @@
         <v>164.5</v>
       </c>
     </row>
-    <row r="344" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A344" s="1">
         <v>44621</v>
       </c>
@@ -6351,7 +6367,7 @@
         <v>163.19999999999999</v>
       </c>
     </row>
-    <row r="345" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A345" s="1">
         <v>44621</v>
       </c>
@@ -6368,7 +6384,7 @@
         <v>171.4</v>
       </c>
     </row>
-    <row r="346" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A346" s="1">
         <v>44621</v>
       </c>
@@ -6385,7 +6401,7 @@
         <v>169.8</v>
       </c>
     </row>
-    <row r="347" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A347" s="1">
         <v>44621</v>
       </c>
@@ -6402,7 +6418,7 @@
         <v>210.6333333333333</v>
       </c>
     </row>
-    <row r="348" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A348" s="1">
         <v>44621</v>
       </c>
@@ -6419,7 +6435,7 @@
         <v>177.3</v>
       </c>
     </row>
-    <row r="349" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A349" s="1">
         <v>44621</v>
       </c>
@@ -6436,7 +6452,7 @@
         <v>167.25</v>
       </c>
     </row>
-    <row r="350" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A350" s="1">
         <v>44621</v>
       </c>
@@ -6453,7 +6469,7 @@
         <v>168.35</v>
       </c>
     </row>
-    <row r="351" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A351" s="1">
         <v>44621</v>
       </c>
@@ -6470,7 +6486,7 @@
         <v>191.4</v>
       </c>
     </row>
-    <row r="352" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A352" s="1">
         <v>44621</v>
       </c>
@@ -6487,7 +6503,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="353" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A353" s="1">
         <v>44652</v>
       </c>
@@ -6504,7 +6520,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="354" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A354" s="1">
         <v>44652</v>
       </c>
@@ -6521,7 +6537,7 @@
         <v>183.1</v>
       </c>
     </row>
-    <row r="355" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A355" s="1">
         <v>44652</v>
       </c>
@@ -6538,7 +6554,7 @@
         <v>170.9</v>
       </c>
     </row>
-    <row r="356" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A356" s="1">
         <v>44652</v>
       </c>
@@ -6555,7 +6571,7 @@
         <v>214.7</v>
       </c>
     </row>
-    <row r="357" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A357" s="1">
         <v>44652</v>
       </c>
@@ -6572,7 +6588,7 @@
         <v>178.83333333333329</v>
       </c>
     </row>
-    <row r="358" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A358" s="1">
         <v>44652</v>
       </c>
@@ -6589,7 +6605,7 @@
         <v>160.85</v>
       </c>
     </row>
-    <row r="359" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A359" s="1">
         <v>44652</v>
       </c>
@@ -6606,7 +6622,7 @@
         <v>167.25</v>
       </c>
     </row>
-    <row r="360" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A360" s="1">
         <v>44652</v>
       </c>
@@ -6623,7 +6639,7 @@
         <v>197.6</v>
       </c>
     </row>
-    <row r="361" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A361" s="1">
         <v>44652</v>
       </c>
@@ -6640,7 +6656,7 @@
         <v>182.8</v>
       </c>
     </row>
-    <row r="362" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A362" s="1">
         <v>44682</v>
       </c>
@@ -6657,7 +6673,7 @@
         <v>165.35</v>
       </c>
     </row>
-    <row r="363" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A363" s="1">
         <v>44682</v>
       </c>
@@ -6674,7 +6690,7 @@
         <v>185.5</v>
       </c>
     </row>
-    <row r="364" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A364" s="1">
         <v>44682</v>
       </c>
@@ -6691,7 +6707,7 @@
         <v>183.1</v>
       </c>
     </row>
-    <row r="365" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A365" s="1">
         <v>44682</v>
       </c>
@@ -6708,7 +6724,7 @@
         <v>249.9666666666667</v>
       </c>
     </row>
-    <row r="366" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A366" s="1">
         <v>44682</v>
       </c>
@@ -6725,7 +6741,7 @@
         <v>197.33333333333329</v>
       </c>
     </row>
-    <row r="367" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A367" s="1">
         <v>44682</v>
       </c>
@@ -6742,7 +6758,7 @@
         <v>189.15</v>
       </c>
     </row>
-    <row r="368" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A368" s="1">
         <v>44682</v>
       </c>
@@ -6759,7 +6775,7 @@
         <v>181.45</v>
       </c>
     </row>
-    <row r="369" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A369" s="1">
         <v>44682</v>
       </c>
@@ -6776,7 +6792,7 @@
         <v>218.7</v>
       </c>
     </row>
-    <row r="370" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A370" s="1">
         <v>44682</v>
       </c>
@@ -6793,7 +6809,7 @@
         <v>202.2</v>
       </c>
     </row>
-    <row r="371" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A371" s="1">
         <v>44713</v>
       </c>
@@ -6810,7 +6826,7 @@
         <v>187.75</v>
       </c>
     </row>
-    <row r="372" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A372" s="1">
         <v>44713</v>
       </c>
@@ -6827,7 +6843,7 @@
         <v>191.2</v>
       </c>
     </row>
-    <row r="373" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A373" s="1">
         <v>44713</v>
       </c>
@@ -6844,7 +6860,7 @@
         <v>205.3</v>
       </c>
     </row>
-    <row r="374" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A374" s="1">
         <v>44713</v>
       </c>
@@ -6861,7 +6877,7 @@
         <v>238.1333333333333</v>
       </c>
     </row>
-    <row r="375" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A375" s="1">
         <v>44713</v>
       </c>
@@ -6878,7 +6894,7 @@
         <v>208.66666666666671</v>
       </c>
     </row>
-    <row r="376" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A376" s="1">
         <v>44713</v>
       </c>
@@ -6895,7 +6911,7 @@
         <v>198.45</v>
       </c>
     </row>
-    <row r="377" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A377" s="1">
         <v>44713</v>
       </c>
@@ -6912,7 +6928,7 @@
         <v>203.35</v>
       </c>
     </row>
-    <row r="378" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A378" s="1">
         <v>44713</v>
       </c>
@@ -6929,7 +6945,7 @@
         <v>214.3</v>
       </c>
     </row>
-    <row r="379" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A379" s="1">
         <v>44713</v>
       </c>
@@ -6946,7 +6962,7 @@
         <v>217.1</v>
       </c>
     </row>
-    <row r="380" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A380" s="1">
         <v>44743</v>
       </c>
@@ -6963,7 +6979,7 @@
         <v>181.1</v>
       </c>
     </row>
-    <row r="381" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A381" s="1">
         <v>44743</v>
       </c>
@@ -6980,7 +6996,7 @@
         <v>186.8</v>
       </c>
     </row>
-    <row r="382" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A382" s="1">
         <v>44743</v>
       </c>
@@ -6997,7 +7013,7 @@
         <v>190.1</v>
       </c>
     </row>
-    <row r="383" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A383" s="1">
         <v>44743</v>
       </c>
@@ -7014,7 +7030,7 @@
         <v>223.7</v>
       </c>
     </row>
-    <row r="384" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A384" s="1">
         <v>44743</v>
       </c>
@@ -7031,7 +7047,7 @@
         <v>182.2</v>
       </c>
     </row>
-    <row r="385" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A385" s="1">
         <v>44743</v>
       </c>
@@ -7048,7 +7064,7 @@
         <v>186.5</v>
       </c>
     </row>
-    <row r="386" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A386" s="1">
         <v>44743</v>
       </c>
@@ -7065,7 +7081,7 @@
         <v>188.95</v>
       </c>
     </row>
-    <row r="387" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A387" s="1">
         <v>44743</v>
       </c>
@@ -7082,7 +7098,7 @@
         <v>209.8</v>
       </c>
     </row>
-    <row r="388" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A388" s="1">
         <v>44743</v>
       </c>
@@ -7099,7 +7115,7 @@
         <v>208.5</v>
       </c>
     </row>
-    <row r="389" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A389" s="1">
         <v>44774</v>
       </c>
@@ -7116,7 +7132,7 @@
         <v>150.15</v>
       </c>
     </row>
-    <row r="390" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A390" s="1">
         <v>44774</v>
       </c>
@@ -7133,7 +7149,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="391" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A391" s="1">
         <v>44774</v>
       </c>
@@ -7150,7 +7166,7 @@
         <v>169.9</v>
       </c>
     </row>
-    <row r="392" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A392" s="1">
         <v>44774</v>
       </c>
@@ -7167,7 +7183,7 @@
         <v>208.8666666666667</v>
       </c>
     </row>
-    <row r="393" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A393" s="1">
         <v>44774</v>
       </c>
@@ -7184,7 +7200,7 @@
         <v>165.1333333333333</v>
       </c>
     </row>
-    <row r="394" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A394" s="1">
         <v>44774</v>
       </c>
@@ -7201,7 +7217,7 @@
         <v>162.44999999999999</v>
       </c>
     </row>
-    <row r="395" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A395" s="1">
         <v>44774</v>
       </c>
@@ -7218,7 +7234,7 @@
         <v>155.9</v>
       </c>
     </row>
-    <row r="396" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A396" s="1">
         <v>44774</v>
       </c>
@@ -7235,7 +7251,7 @@
         <v>197.2</v>
       </c>
     </row>
-    <row r="397" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A397" s="1">
         <v>44774</v>
       </c>
@@ -7252,7 +7268,7 @@
         <v>186.6</v>
       </c>
     </row>
-    <row r="398" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A398" s="1">
         <v>44805</v>
       </c>
@@ -7269,7 +7285,7 @@
         <v>140.5</v>
       </c>
     </row>
-    <row r="399" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A399" s="1">
         <v>44805</v>
       </c>
@@ -7286,7 +7302,7 @@
         <v>178.3</v>
       </c>
     </row>
-    <row r="400" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A400" s="1">
         <v>44805</v>
       </c>
@@ -7303,7 +7319,7 @@
         <v>169.2</v>
       </c>
     </row>
-    <row r="401" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A401" s="1">
         <v>44805</v>
       </c>
@@ -7320,7 +7336,7 @@
         <v>212.5333333333333</v>
       </c>
     </row>
-    <row r="402" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A402" s="1">
         <v>44805</v>
       </c>
@@ -7337,7 +7353,7 @@
         <v>154.1</v>
       </c>
     </row>
-    <row r="403" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A403" s="1">
         <v>44805</v>
       </c>
@@ -7354,7 +7370,7 @@
         <v>172.4</v>
       </c>
     </row>
-    <row r="404" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A404" s="1">
         <v>44805</v>
       </c>
@@ -7371,7 +7387,7 @@
         <v>156.55000000000001</v>
       </c>
     </row>
-    <row r="405" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A405" s="1">
         <v>44805</v>
       </c>
@@ -7388,7 +7404,7 @@
         <v>197.9</v>
       </c>
     </row>
-    <row r="406" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A406" s="1">
         <v>44805</v>
       </c>
@@ -7405,7 +7421,7 @@
         <v>186.2</v>
       </c>
     </row>
-    <row r="407" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A407" s="1">
         <v>44835</v>
       </c>
@@ -7422,7 +7438,7 @@
         <v>165.25</v>
       </c>
     </row>
-    <row r="408" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A408" s="1">
         <v>44835</v>
       </c>
@@ -7439,7 +7455,7 @@
         <v>207.7</v>
       </c>
     </row>
-    <row r="409" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A409" s="1">
         <v>44835</v>
       </c>
@@ -7456,7 +7472,7 @@
         <v>184.3</v>
       </c>
     </row>
-    <row r="410" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A410" s="1">
         <v>44835</v>
       </c>
@@ -7473,7 +7489,7 @@
         <v>235.8</v>
       </c>
     </row>
-    <row r="411" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A411" s="1">
         <v>44835</v>
       </c>
@@ -7490,7 +7506,7 @@
         <v>171.33333333333329</v>
       </c>
     </row>
-    <row r="412" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A412" s="1">
         <v>44835</v>
       </c>
@@ -7507,7 +7523,7 @@
         <v>196.25</v>
       </c>
     </row>
-    <row r="413" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A413" s="1">
         <v>44835</v>
       </c>
@@ -7524,7 +7540,7 @@
         <v>177.55</v>
       </c>
     </row>
-    <row r="414" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A414" s="1">
         <v>44835</v>
       </c>
@@ -7541,7 +7557,7 @@
         <v>214.1</v>
       </c>
     </row>
-    <row r="415" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A415" s="1">
         <v>44835</v>
       </c>
@@ -7558,7 +7574,7 @@
         <v>199.9</v>
       </c>
     </row>
-    <row r="416" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A416" s="1">
         <v>44866</v>
       </c>
@@ -7575,7 +7591,7 @@
         <v>148.69999999999999</v>
       </c>
     </row>
-    <row r="417" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A417" s="1">
         <v>44866</v>
       </c>
@@ -7592,7 +7608,7 @@
         <v>204.9</v>
       </c>
     </row>
-    <row r="418" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A418" s="1">
         <v>44866</v>
       </c>
@@ -7609,7 +7625,7 @@
         <v>171.7</v>
       </c>
     </row>
-    <row r="419" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A419" s="1">
         <v>44866</v>
       </c>
@@ -7626,7 +7642,7 @@
         <v>252.33333333333329</v>
       </c>
     </row>
-    <row r="420" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A420" s="1">
         <v>44866</v>
       </c>
@@ -7643,7 +7659,7 @@
         <v>160.73333333333329</v>
       </c>
     </row>
-    <row r="421" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A421" s="1">
         <v>44866</v>
       </c>
@@ -7660,7 +7676,7 @@
         <v>202.85</v>
       </c>
     </row>
-    <row r="422" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A422" s="1">
         <v>44866</v>
       </c>
@@ -7677,7 +7693,7 @@
         <v>159.69999999999999</v>
       </c>
     </row>
-    <row r="423" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A423" s="1">
         <v>44866</v>
       </c>
@@ -7694,7 +7710,7 @@
         <v>228.9</v>
       </c>
     </row>
-    <row r="424" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A424" s="1">
         <v>44866</v>
       </c>
@@ -7711,7 +7727,7 @@
         <v>186.3</v>
       </c>
     </row>
-    <row r="425" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A425" s="1">
         <v>44896</v>
       </c>
@@ -7728,7 +7744,7 @@
         <v>125.2</v>
       </c>
     </row>
-    <row r="426" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A426" s="1">
         <v>44896</v>
       </c>
@@ -7745,7 +7761,7 @@
         <v>180.4</v>
       </c>
     </row>
-    <row r="427" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A427" s="1">
         <v>44896</v>
       </c>
@@ -7762,7 +7778,7 @@
         <v>150.80000000000001</v>
       </c>
     </row>
-    <row r="428" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A428" s="1">
         <v>44896</v>
       </c>
@@ -7779,7 +7795,7 @@
         <v>230.5333333333333</v>
       </c>
     </row>
-    <row r="429" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A429" s="1">
         <v>44896</v>
       </c>
@@ -7796,7 +7812,7 @@
         <v>140.4666666666667</v>
       </c>
     </row>
-    <row r="430" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A430" s="1">
         <v>44896</v>
       </c>
@@ -7813,7 +7829,7 @@
         <v>185.65</v>
       </c>
     </row>
-    <row r="431" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A431" s="1">
         <v>44896</v>
       </c>
@@ -7830,7 +7846,7 @@
         <v>141.05000000000001</v>
       </c>
     </row>
-    <row r="432" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A432" s="1">
         <v>44896</v>
       </c>
@@ -7847,7 +7863,7 @@
         <v>214.8</v>
       </c>
     </row>
-    <row r="433" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A433" s="1">
         <v>44896</v>
       </c>
@@ -7864,7 +7880,7 @@
         <v>174.5</v>
       </c>
     </row>
-    <row r="434" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A434" s="1">
         <v>44927</v>
       </c>
@@ -7881,7 +7897,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="435" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A435" s="1">
         <v>44927</v>
       </c>
@@ -7898,7 +7914,7 @@
         <v>172.7</v>
       </c>
     </row>
-    <row r="436" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A436" s="1">
         <v>44927</v>
       </c>
@@ -7915,7 +7931,7 @@
         <v>147.19999999999999</v>
       </c>
     </row>
-    <row r="437" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A437" s="1">
         <v>44927</v>
       </c>
@@ -7932,7 +7948,7 @@
         <v>222.26666666666671</v>
       </c>
     </row>
-    <row r="438" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A438" s="1">
         <v>44927</v>
       </c>
@@ -7949,7 +7965,7 @@
         <v>149.23333333333329</v>
       </c>
     </row>
-    <row r="439" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A439" s="1">
         <v>44927</v>
       </c>
@@ -7966,7 +7982,7 @@
         <v>176.35</v>
       </c>
     </row>
-    <row r="440" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A440" s="1">
         <v>44927</v>
       </c>
@@ -7983,7 +7999,7 @@
         <v>147.75</v>
       </c>
     </row>
-    <row r="441" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A441" s="1">
         <v>44927</v>
       </c>
@@ -8000,7 +8016,7 @@
         <v>204.8</v>
       </c>
     </row>
-    <row r="442" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A442" s="1">
         <v>44927</v>
       </c>
@@ -8017,7 +8033,7 @@
         <v>169.6</v>
       </c>
     </row>
-    <row r="443" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A443" s="1">
         <v>44958</v>
       </c>
@@ -8034,7 +8050,7 @@
         <v>124.25</v>
       </c>
     </row>
-    <row r="444" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A444" s="1">
         <v>44958</v>
       </c>
@@ -8051,7 +8067,7 @@
         <v>158.80000000000001</v>
       </c>
     </row>
-    <row r="445" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A445" s="1">
         <v>44958</v>
       </c>
@@ -8068,7 +8084,7 @@
         <v>153.19999999999999</v>
       </c>
     </row>
-    <row r="446" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A446" s="1">
         <v>44958</v>
       </c>
@@ -8085,7 +8101,7 @@
         <v>203.4666666666667</v>
       </c>
     </row>
-    <row r="447" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A447" s="1">
         <v>44958</v>
       </c>
@@ -8102,7 +8118,7 @@
         <v>147.43333333333331</v>
       </c>
     </row>
-    <row r="448" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A448" s="1">
         <v>44958</v>
       </c>
@@ -8119,7 +8135,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="449" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A449" s="1">
         <v>44958</v>
       </c>
@@ -8136,7 +8152,7 @@
         <v>147.15</v>
       </c>
     </row>
-    <row r="450" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A450" s="1">
         <v>44958</v>
       </c>
@@ -8153,7 +8169,7 @@
         <v>197.7</v>
       </c>
     </row>
-    <row r="451" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A451" s="1">
         <v>44958</v>
       </c>
@@ -8170,7 +8186,7 @@
         <v>167.8</v>
       </c>
     </row>
-    <row r="452" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A452" s="1">
         <v>44986</v>
       </c>
@@ -8187,7 +8203,7 @@
         <v>130.6</v>
       </c>
     </row>
-    <row r="453" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A453" s="1">
         <v>44986</v>
       </c>
@@ -8204,7 +8220,7 @@
         <v>153.69999999999999</v>
       </c>
     </row>
-    <row r="454" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A454" s="1">
         <v>44986</v>
       </c>
@@ -8221,7 +8237,7 @@
         <v>151.5</v>
       </c>
     </row>
-    <row r="455" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A455" s="1">
         <v>44986</v>
       </c>
@@ -8238,7 +8254,7 @@
         <v>191.8666666666667</v>
       </c>
     </row>
-    <row r="456" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A456" s="1">
         <v>44986</v>
       </c>
@@ -8255,7 +8271,7 @@
         <v>151.4</v>
       </c>
     </row>
-    <row r="457" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A457" s="1">
         <v>44986</v>
       </c>
@@ -8272,7 +8288,7 @@
         <v>165.9</v>
       </c>
     </row>
-    <row r="458" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A458" s="1">
         <v>44986</v>
       </c>
@@ -8289,7 +8305,7 @@
         <v>153.9</v>
       </c>
     </row>
-    <row r="459" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A459" s="1">
         <v>44986</v>
       </c>
@@ -8306,7 +8322,7 @@
         <v>188.8</v>
       </c>
     </row>
-    <row r="460" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A460" s="1">
         <v>44986</v>
       </c>
@@ -8323,7 +8339,7 @@
         <v>169.2</v>
       </c>
     </row>
-    <row r="461" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A461" s="1">
         <v>45017</v>
       </c>
@@ -8340,7 +8356,7 @@
         <v>142.75</v>
       </c>
     </row>
-    <row r="462" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A462" s="1">
         <v>45017</v>
       </c>
@@ -8357,7 +8373,7 @@
         <v>151.80000000000001</v>
       </c>
     </row>
-    <row r="463" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A463" s="1">
         <v>45017</v>
       </c>
@@ -8374,7 +8390,7 @@
         <v>162.4</v>
       </c>
     </row>
-    <row r="464" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A464" s="1">
         <v>45017</v>
       </c>
@@ -8391,7 +8407,7 @@
         <v>189.7</v>
       </c>
     </row>
-    <row r="465" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A465" s="1">
         <v>45017</v>
       </c>
@@ -8408,7 +8424,7 @@
         <v>160.0333333333333</v>
       </c>
     </row>
-    <row r="466" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A466" s="1">
         <v>45017</v>
       </c>
@@ -8425,7 +8441,7 @@
         <v>161.65</v>
       </c>
     </row>
-    <row r="467" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A467" s="1">
         <v>45017</v>
       </c>
@@ -8442,7 +8458,7 @@
         <v>159.65</v>
       </c>
     </row>
-    <row r="468" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A468" s="1">
         <v>45017</v>
       </c>
@@ -8459,7 +8475,7 @@
         <v>187.5</v>
       </c>
     </row>
-    <row r="469" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A469" s="1">
         <v>45017</v>
       </c>
@@ -8476,7 +8492,7 @@
         <v>183.1</v>
       </c>
     </row>
-    <row r="470" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A470" s="1">
         <v>45047</v>
       </c>
@@ -8493,7 +8509,7 @@
         <v>142.05000000000001</v>
       </c>
     </row>
-    <row r="471" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A471" s="1">
         <v>45047</v>
       </c>
@@ -8510,7 +8526,7 @@
         <v>141.80000000000001</v>
       </c>
     </row>
-    <row r="472" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A472" s="1">
         <v>45047</v>
       </c>
@@ -8527,7 +8543,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="473" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A473" s="1">
         <v>45047</v>
       </c>
@@ -8544,7 +8560,7 @@
         <v>181.9</v>
       </c>
     </row>
-    <row r="474" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A474" s="1">
         <v>45047</v>
       </c>
@@ -8561,7 +8577,7 @@
         <v>158.23333333333329</v>
       </c>
     </row>
-    <row r="475" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A475" s="1">
         <v>45047</v>
       </c>
@@ -8578,7 +8594,7 @@
         <v>157.6</v>
       </c>
     </row>
-    <row r="476" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A476" s="1">
         <v>45047</v>
       </c>
@@ -8595,7 +8611,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="477" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A477" s="1">
         <v>45047</v>
       </c>
@@ -8612,7 +8628,7 @@
         <v>181.8</v>
       </c>
     </row>
-    <row r="478" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A478" s="1">
         <v>45047</v>
       </c>
@@ -8629,7 +8645,7 @@
         <v>183.9</v>
       </c>
     </row>
-    <row r="479" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A479" s="1">
         <v>45078</v>
       </c>
@@ -8646,7 +8662,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="480" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A480" s="1">
         <v>45078</v>
       </c>
@@ -8663,7 +8679,7 @@
         <v>142.6</v>
       </c>
     </row>
-    <row r="481" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A481" s="1">
         <v>45078</v>
       </c>
@@ -8680,7 +8696,7 @@
         <v>157.6</v>
       </c>
     </row>
-    <row r="482" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A482" s="1">
         <v>45078</v>
       </c>
@@ -8697,7 +8713,7 @@
         <v>174.93333333333331</v>
       </c>
     </row>
-    <row r="483" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A483" s="1">
         <v>45078</v>
       </c>
@@ -8714,7 +8730,7 @@
         <v>161.6</v>
       </c>
     </row>
-    <row r="484" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A484" s="1">
         <v>45078</v>
       </c>
@@ -8731,7 +8747,7 @@
         <v>159.19999999999999</v>
       </c>
     </row>
-    <row r="485" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A485" s="1">
         <v>45078</v>
       </c>
@@ -8748,7 +8764,7 @@
         <v>158.05000000000001</v>
       </c>
     </row>
-    <row r="486" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A486" s="1">
         <v>45078</v>
       </c>
@@ -8765,7 +8781,7 @@
         <v>178.3</v>
       </c>
     </row>
-    <row r="487" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A487" s="1">
         <v>45078</v>
       </c>
@@ -8782,7 +8798,7 @@
         <v>183.9</v>
       </c>
     </row>
-    <row r="488" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A488" s="1">
         <v>45108</v>
       </c>
@@ -8799,7 +8815,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="489" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A489" s="1">
         <v>45108</v>
       </c>
@@ -8816,7 +8832,7 @@
         <v>139.19999999999999</v>
       </c>
     </row>
-    <row r="490" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A490" s="1">
         <v>45108</v>
       </c>
@@ -8833,7 +8849,7 @@
         <v>157.5</v>
       </c>
     </row>
-    <row r="491" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A491" s="1">
         <v>45108</v>
       </c>
@@ -8850,7 +8866,7 @@
         <v>170.4</v>
       </c>
     </row>
-    <row r="492" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A492" s="1">
         <v>45108</v>
       </c>
@@ -8867,7 +8883,7 @@
         <v>162.1</v>
       </c>
     </row>
-    <row r="493" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A493" s="1">
         <v>45108</v>
       </c>
@@ -8884,7 +8900,7 @@
         <v>161.1</v>
       </c>
     </row>
-    <row r="494" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A494" s="1">
         <v>45108</v>
       </c>
@@ -8901,7 +8917,7 @@
         <v>154.85</v>
       </c>
     </row>
-    <row r="495" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A495" s="1">
         <v>45108</v>
       </c>
@@ -8918,7 +8934,7 @@
         <v>171.4</v>
       </c>
     </row>
-    <row r="496" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A496" s="1">
         <v>45108</v>
       </c>
@@ -8935,7 +8951,7 @@
         <v>183.9</v>
       </c>
     </row>
-    <row r="497" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A497" s="1">
         <v>45139</v>
       </c>
@@ -8952,7 +8968,7 @@
         <v>144.65</v>
       </c>
     </row>
-    <row r="498" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A498" s="1">
         <v>45139</v>
       </c>
@@ -8969,7 +8985,7 @@
         <v>154.6</v>
       </c>
     </row>
-    <row r="499" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A499" s="1">
         <v>45139</v>
       </c>
@@ -8986,7 +9002,7 @@
         <v>163.30000000000001</v>
       </c>
     </row>
-    <row r="500" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A500" s="1">
         <v>45139</v>
       </c>
@@ -9003,7 +9019,7 @@
         <v>179.5333333333333</v>
       </c>
     </row>
-    <row r="501" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A501" s="1">
         <v>45139</v>
       </c>
@@ -9020,7 +9036,7 @@
         <v>169.43333333333331</v>
       </c>
     </row>
-    <row r="502" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A502" s="1">
         <v>45139</v>
       </c>
@@ -9037,7 +9053,7 @@
         <v>176.85</v>
       </c>
     </row>
-    <row r="503" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A503" s="1">
         <v>45139</v>
       </c>
@@ -9054,7 +9070,7 @@
         <v>160.5</v>
       </c>
     </row>
-    <row r="504" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A504" s="1">
         <v>45139</v>
       </c>
@@ -9071,7 +9087,7 @@
         <v>187.4</v>
       </c>
     </row>
-    <row r="505" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A505" s="1">
         <v>45139</v>
       </c>
@@ -9088,7 +9104,7 @@
         <v>191.4</v>
       </c>
     </row>
-    <row r="506" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A506" s="1">
         <v>45170</v>
       </c>
@@ -9105,7 +9121,7 @@
         <v>142.44999999999999</v>
       </c>
     </row>
-    <row r="507" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A507" s="1">
         <v>45170</v>
       </c>
@@ -9122,7 +9138,7 @@
         <v>165.6</v>
       </c>
     </row>
-    <row r="508" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A508" s="1">
         <v>45170</v>
       </c>
@@ -9139,7 +9155,7 @@
         <v>163.4</v>
       </c>
     </row>
-    <row r="509" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A509" s="1">
         <v>45170</v>
       </c>
@@ -9156,7 +9172,7 @@
         <v>198.5333333333333</v>
       </c>
     </row>
-    <row r="510" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A510" s="1">
         <v>45170</v>
       </c>
@@ -9173,7 +9189,7 @@
         <v>166.23333333333329</v>
       </c>
     </row>
-    <row r="511" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A511" s="1">
         <v>45170</v>
       </c>
@@ -9190,7 +9206,7 @@
         <v>178.9</v>
       </c>
     </row>
-    <row r="512" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A512" s="1">
         <v>45170</v>
       </c>
@@ -9207,7 +9223,7 @@
         <v>159.75</v>
       </c>
     </row>
-    <row r="513" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A513" s="1">
         <v>45170</v>
       </c>
@@ -9224,7 +9240,7 @@
         <v>190.6</v>
       </c>
     </row>
-    <row r="514" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A514" s="1">
         <v>45170</v>
       </c>
@@ -9241,7 +9257,7 @@
         <v>193.6</v>
       </c>
     </row>
-    <row r="515" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A515" s="1">
         <v>45200</v>
       </c>
@@ -9258,7 +9274,7 @@
         <v>138.15</v>
       </c>
     </row>
-    <row r="516" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A516" s="1">
         <v>45200</v>
       </c>
@@ -9275,7 +9291,7 @@
         <v>169.5</v>
       </c>
     </row>
-    <row r="517" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A517" s="1">
         <v>45200</v>
       </c>
@@ -9292,7 +9308,7 @@
         <v>155.9</v>
       </c>
     </row>
-    <row r="518" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A518" s="1">
         <v>45200</v>
       </c>
@@ -9309,7 +9325,7 @@
         <v>199.06666666666669</v>
       </c>
     </row>
-    <row r="519" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A519" s="1">
         <v>45200</v>
       </c>
@@ -9326,7 +9342,7 @@
         <v>153.19999999999999</v>
       </c>
     </row>
-    <row r="520" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A520" s="1">
         <v>45200</v>
       </c>
@@ -9343,7 +9359,7 @@
         <v>176.95</v>
       </c>
     </row>
-    <row r="521" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A521" s="1">
         <v>45200</v>
       </c>
@@ -9360,7 +9376,7 @@
         <v>154.05000000000001</v>
       </c>
     </row>
-    <row r="522" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A522" s="1">
         <v>45200</v>
       </c>
@@ -9377,7 +9393,7 @@
         <v>187.6</v>
       </c>
     </row>
-    <row r="523" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A523" s="1">
         <v>45200</v>
       </c>
@@ -9394,7 +9410,7 @@
         <v>191.7</v>
       </c>
     </row>
-    <row r="524" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A524" s="1">
         <v>45231</v>
       </c>
@@ -9411,7 +9427,7 @@
         <v>131.5</v>
       </c>
     </row>
-    <row r="525" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A525" s="1">
         <v>45231</v>
       </c>
@@ -9428,7 +9444,7 @@
         <v>160.9</v>
       </c>
     </row>
-    <row r="526" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A526" s="1">
         <v>45231</v>
       </c>
@@ -9445,7 +9461,7 @@
         <v>151.6</v>
       </c>
     </row>
-    <row r="527" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A527" s="1">
         <v>45231</v>
       </c>
@@ -9462,7 +9478,7 @@
         <v>197.3666666666667</v>
       </c>
     </row>
-    <row r="528" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A528" s="1">
         <v>45231</v>
       </c>
@@ -9479,7 +9495,7 @@
         <v>150.16666666666671</v>
       </c>
     </row>
-    <row r="529" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A529" s="1">
         <v>45231</v>
       </c>
@@ -9496,7 +9512,7 @@
         <v>168.55</v>
       </c>
     </row>
-    <row r="530" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A530" s="1">
         <v>45231</v>
       </c>
@@ -9513,7 +9529,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="531" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A531" s="1">
         <v>45231</v>
       </c>
@@ -9530,7 +9546,7 @@
         <v>179.5</v>
       </c>
     </row>
-    <row r="532" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A532" s="1">
         <v>45231</v>
       </c>
@@ -9547,7 +9563,7 @@
         <v>189.9</v>
       </c>
     </row>
-    <row r="533" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A533" s="1">
         <v>45261</v>
       </c>
@@ -9564,7 +9580,7 @@
         <v>121.1</v>
       </c>
     </row>
-    <row r="534" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A534" s="1">
         <v>45261</v>
       </c>
@@ -9581,7 +9597,7 @@
         <v>154.69999999999999</v>
       </c>
     </row>
-    <row r="535" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A535" s="1">
         <v>45261</v>
       </c>
@@ -9598,7 +9614,7 @@
         <v>136.69999999999999</v>
       </c>
     </row>
-    <row r="536" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A536" s="1">
         <v>45261</v>
       </c>
@@ -9615,7 +9631,7 @@
         <v>182.06666666666669</v>
       </c>
     </row>
-    <row r="537" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A537" s="1">
         <v>45261</v>
       </c>
@@ -9632,7 +9648,7 @@
         <v>141.5333333333333</v>
       </c>
     </row>
-    <row r="538" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A538" s="1">
         <v>45261</v>
       </c>
@@ -9649,7 +9665,7 @@
         <v>160.19999999999999</v>
       </c>
     </row>
-    <row r="539" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A539" s="1">
         <v>45261</v>
       </c>
@@ -9666,7 +9682,7 @@
         <v>134.75</v>
       </c>
     </row>
-    <row r="540" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A540" s="1">
         <v>45261</v>
       </c>
@@ -9683,7 +9699,7 @@
         <v>182.8</v>
       </c>
     </row>
-    <row r="541" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A541" s="1">
         <v>45261</v>
       </c>
@@ -9700,7 +9716,7 @@
         <v>179.3</v>
       </c>
     </row>
-    <row r="542" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A542" s="1">
         <v>45292</v>
       </c>
@@ -9717,7 +9733,7 @@
         <v>123.05</v>
       </c>
     </row>
-    <row r="543" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A543" s="1">
         <v>45292</v>
       </c>
@@ -9734,7 +9750,7 @@
         <v>139.1</v>
       </c>
     </row>
-    <row r="544" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A544" s="1">
         <v>45292</v>
       </c>
@@ -9751,7 +9767,7 @@
         <v>117.4</v>
       </c>
     </row>
-    <row r="545" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A545" s="1">
         <v>45292</v>
       </c>
@@ -9768,7 +9784,7 @@
         <v>163.9</v>
       </c>
     </row>
-    <row r="546" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A546" s="1">
         <v>45292</v>
       </c>
@@ -9785,7 +9801,7 @@
         <v>141.6333333333333</v>
       </c>
     </row>
-    <row r="547" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A547" s="1">
         <v>45292</v>
       </c>
@@ -9802,7 +9818,7 @@
         <v>142.69999999999999</v>
       </c>
     </row>
-    <row r="548" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A548" s="1">
         <v>45292</v>
       </c>
@@ -9819,7 +9835,7 @@
         <v>131.5</v>
       </c>
     </row>
-    <row r="549" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A549" s="1">
         <v>45292</v>
       </c>
@@ -9836,7 +9852,7 @@
         <v>166.6</v>
       </c>
     </row>
-    <row r="550" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A550" s="1">
         <v>45292</v>
       </c>
@@ -9853,7 +9869,7 @@
         <v>169.9</v>
       </c>
     </row>
-    <row r="551" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A551" s="1">
         <v>45323</v>
       </c>
@@ -9870,7 +9886,7 @@
         <v>132.19999999999999</v>
       </c>
     </row>
-    <row r="552" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A552" s="1">
         <v>45323</v>
       </c>
@@ -9887,7 +9903,7 @@
         <v>142.30000000000001</v>
       </c>
     </row>
-    <row r="553" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A553" s="1">
         <v>45323</v>
       </c>
@@ -9904,7 +9920,7 @@
         <v>125.6</v>
       </c>
     </row>
-    <row r="554" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A554" s="1">
         <v>45323</v>
       </c>
@@ -9921,7 +9937,7 @@
         <v>174.8666666666667</v>
       </c>
     </row>
-    <row r="555" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A555" s="1">
         <v>45323</v>
       </c>
@@ -9938,7 +9954,7 @@
         <v>148.9</v>
       </c>
     </row>
-    <row r="556" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A556" s="1">
         <v>45323</v>
       </c>
@@ -9955,7 +9971,7 @@
         <v>151.94999999999999</v>
       </c>
     </row>
-    <row r="557" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A557" s="1">
         <v>45323</v>
       </c>
@@ -9972,7 +9988,7 @@
         <v>139.30000000000001</v>
       </c>
     </row>
-    <row r="558" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A558" s="1">
         <v>45323</v>
       </c>
@@ -9989,7 +10005,7 @@
         <v>170.3</v>
       </c>
     </row>
-    <row r="559" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A559" s="1">
         <v>45323</v>
       </c>
@@ -10006,7 +10022,7 @@
         <v>169.9</v>
       </c>
     </row>
-    <row r="560" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A560" s="1">
         <v>45352</v>
       </c>
@@ -10023,7 +10039,7 @@
         <v>144.4</v>
       </c>
     </row>
-    <row r="561" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A561" s="1">
         <v>45352</v>
       </c>
@@ -10040,7 +10056,7 @@
         <v>133.4</v>
       </c>
     </row>
-    <row r="562" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A562" s="1">
         <v>45352</v>
       </c>
@@ -10057,7 +10073,7 @@
         <v>135.5</v>
       </c>
     </row>
-    <row r="563" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A563" s="1">
         <v>45352</v>
       </c>
@@ -10074,7 +10090,7 @@
         <v>173.4</v>
       </c>
     </row>
-    <row r="564" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A564" s="1">
         <v>45352</v>
       </c>
@@ -10091,7 +10107,7 @@
         <v>156.5</v>
       </c>
     </row>
-    <row r="565" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A565" s="1">
         <v>45352</v>
       </c>
@@ -10108,7 +10124,7 @@
         <v>153.85</v>
       </c>
     </row>
-    <row r="566" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A566" s="1">
         <v>45352</v>
       </c>
@@ -10125,7 +10141,7 @@
         <v>151.25</v>
       </c>
     </row>
-    <row r="567" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A567" s="1">
         <v>45352</v>
       </c>
@@ -10142,7 +10158,7 @@
         <v>165.7</v>
       </c>
     </row>
-    <row r="568" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A568" s="1">
         <v>45352</v>
       </c>
@@ -10159,7 +10175,7 @@
         <v>177.3</v>
       </c>
     </row>
-    <row r="569" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A569" s="1">
         <v>45383</v>
       </c>
@@ -10176,7 +10192,7 @@
         <v>157.1</v>
       </c>
     </row>
-    <row r="570" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A570" s="1">
         <v>45383</v>
       </c>
@@ -10193,7 +10209,7 @@
         <v>139.30000000000001</v>
       </c>
     </row>
-    <row r="571" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A571" s="1">
         <v>45383</v>
       </c>
@@ -10210,7 +10226,7 @@
         <v>141.5</v>
       </c>
     </row>
-    <row r="572" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A572" s="1">
         <v>45383</v>
       </c>
@@ -10227,7 +10243,7 @@
         <v>173.43333333333331</v>
       </c>
     </row>
-    <row r="573" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A573" s="1">
         <v>45383</v>
       </c>
@@ -10244,7 +10260,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="574" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A574" s="1">
         <v>45383</v>
       </c>
@@ -10261,7 +10277,7 @@
         <v>148.25</v>
       </c>
     </row>
-    <row r="575" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A575" s="1">
         <v>45383</v>
       </c>
@@ -10278,7 +10294,7 @@
         <v>157.19999999999999</v>
       </c>
     </row>
-    <row r="576" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A576" s="1">
         <v>45383</v>
       </c>
@@ -10295,7 +10311,7 @@
         <v>170.5</v>
       </c>
     </row>
-    <row r="577" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A577" s="1">
         <v>45383</v>
       </c>
@@ -10312,7 +10328,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="578" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A578" s="1">
         <v>45413</v>
       </c>
@@ -10329,7 +10345,7 @@
         <v>153.55000000000001</v>
       </c>
     </row>
-    <row r="579" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A579" s="1">
         <v>45413</v>
       </c>
@@ -10346,7 +10362,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="580" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A580" s="1">
         <v>45413</v>
       </c>
@@ -10363,7 +10379,7 @@
         <v>141.4</v>
       </c>
     </row>
-    <row r="581" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="581" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A581" s="1">
         <v>45413</v>
       </c>
@@ -10380,7 +10396,7 @@
         <v>166.0333333333333</v>
       </c>
     </row>
-    <row r="582" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A582" s="1">
         <v>45413</v>
       </c>
@@ -10397,7 +10413,7 @@
         <v>166.1333333333333</v>
       </c>
     </row>
-    <row r="583" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A583" s="1">
         <v>45413</v>
       </c>
@@ -10414,7 +10430,7 @@
         <v>142.69999999999999</v>
       </c>
     </row>
-    <row r="584" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A584" s="1">
         <v>45413</v>
       </c>
@@ -10431,7 +10447,7 @@
         <v>154.30000000000001</v>
       </c>
     </row>
-    <row r="585" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="585" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A585" s="1">
         <v>45413</v>
       </c>
@@ -10448,7 +10464,7 @@
         <v>167.3</v>
       </c>
     </row>
-    <row r="586" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A586" s="1">
         <v>45413</v>
       </c>
@@ -10465,7 +10481,7 @@
         <v>189.9</v>
       </c>
     </row>
-    <row r="587" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="587" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A587" s="1">
         <v>45444</v>
       </c>
@@ -10482,7 +10498,7 @@
         <v>151.55000000000001</v>
       </c>
     </row>
-    <row r="588" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="588" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A588" s="1">
         <v>45444</v>
       </c>
@@ -10499,7 +10515,7 @@
         <v>128.4</v>
       </c>
     </row>
-    <row r="589" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A589" s="1">
         <v>45444</v>
       </c>
@@ -10516,7 +10532,7 @@
         <v>137.1</v>
       </c>
     </row>
-    <row r="590" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="590" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A590" s="1">
         <v>45444</v>
       </c>
@@ -10533,7 +10549,7 @@
         <v>162.83333333333329</v>
       </c>
     </row>
-    <row r="591" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="591" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A591" s="1">
         <v>45444</v>
       </c>
@@ -10550,7 +10566,7 @@
         <v>161.26666666666671</v>
       </c>
     </row>
-    <row r="592" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="592" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A592" s="1">
         <v>45444</v>
       </c>
@@ -10567,7 +10583,7 @@
         <v>147.4</v>
       </c>
     </row>
-    <row r="593" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="593" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A593" s="1">
         <v>45444</v>
       </c>
@@ -10584,7 +10600,7 @@
         <v>152.5</v>
       </c>
     </row>
-    <row r="594" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="594" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A594" s="1">
         <v>45444</v>
       </c>
@@ -10601,7 +10617,7 @@
         <v>167.9</v>
       </c>
     </row>
-    <row r="595" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="595" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A595" s="1">
         <v>45444</v>
       </c>
@@ -10618,7 +10634,7 @@
         <v>189.9</v>
       </c>
     </row>
-    <row r="596" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="596" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A596" s="1">
         <v>45474</v>
       </c>
@@ -10635,7 +10651,7 @@
         <v>156.69999999999999</v>
       </c>
     </row>
-    <row r="597" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="597" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A597" s="1">
         <v>45474</v>
       </c>
@@ -10652,7 +10668,7 @@
         <v>139.69999999999999</v>
       </c>
     </row>
-    <row r="598" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="598" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A598" s="1">
         <v>45474</v>
       </c>
@@ -10669,7 +10685,7 @@
         <v>144.6</v>
       </c>
     </row>
-    <row r="599" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="599" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A599" s="1">
         <v>45474</v>
       </c>
@@ -10686,7 +10702,7 @@
         <v>170.73333333333329</v>
       </c>
     </row>
-    <row r="600" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="600" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A600" s="1">
         <v>45474</v>
       </c>
@@ -10703,7 +10719,7 @@
         <v>166.83333333333329</v>
       </c>
     </row>
-    <row r="601" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="601" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A601" s="1">
         <v>45474</v>
       </c>
@@ -10720,7 +10736,7 @@
         <v>143.65</v>
       </c>
     </row>
-    <row r="602" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="602" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A602" s="1">
         <v>45474</v>
       </c>
@@ -10737,7 +10753,7 @@
         <v>159.5</v>
       </c>
     </row>
-    <row r="603" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="603" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A603" s="1">
         <v>45474</v>
       </c>
@@ -10754,7 +10770,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="604" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="604" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A604" s="1">
         <v>45474</v>
       </c>
@@ -10771,7 +10787,7 @@
         <v>189.9</v>
       </c>
     </row>
-    <row r="605" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="605" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A605" s="1">
         <v>45505</v>
       </c>
@@ -10788,7 +10804,7 @@
         <v>153.94999999999999</v>
       </c>
     </row>
-    <row r="606" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="606" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A606" s="1">
         <v>45505</v>
       </c>
@@ -10805,7 +10821,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="607" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="607" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A607" s="1">
         <v>45505</v>
       </c>
@@ -10822,7 +10838,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="608" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="608" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A608" s="1">
         <v>45505</v>
       </c>
@@ -10839,7 +10855,7 @@
         <v>166.1333333333333</v>
       </c>
     </row>
-    <row r="609" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="609" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A609" s="1">
         <v>45505</v>
       </c>
@@ -10856,7 +10872,7 @@
         <v>164.73333333333329</v>
       </c>
     </row>
-    <row r="610" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="610" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A610" s="1">
         <v>45505</v>
       </c>
@@ -10873,7 +10889,7 @@
         <v>143.30000000000001</v>
       </c>
     </row>
-    <row r="611" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="611" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A611" s="1">
         <v>45505</v>
       </c>
@@ -10890,7 +10906,7 @@
         <v>163.75</v>
       </c>
     </row>
-    <row r="612" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="612" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A612" s="1">
         <v>45505</v>
       </c>
@@ -10907,7 +10923,7 @@
         <v>167.4</v>
       </c>
     </row>
-    <row r="613" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="613" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A613" s="1">
         <v>45505</v>
       </c>
@@ -10924,7 +10940,7 @@
         <v>189.9</v>
       </c>
     </row>
-    <row r="614" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="614" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A614" s="1">
         <v>45536</v>
       </c>
@@ -10941,7 +10957,7 @@
         <v>140.30000000000001</v>
       </c>
     </row>
-    <row r="615" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="615" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A615" s="1">
         <v>45536</v>
       </c>
@@ -10958,7 +10974,7 @@
         <v>128.80000000000001</v>
       </c>
     </row>
-    <row r="616" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="616" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A616" s="1">
         <v>45536</v>
       </c>
@@ -10975,7 +10991,7 @@
         <v>132.30000000000001</v>
       </c>
     </row>
-    <row r="617" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="617" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A617" s="1">
         <v>45536</v>
       </c>
@@ -10992,7 +11008,7 @@
         <v>156.4666666666667</v>
       </c>
     </row>
-    <row r="618" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="618" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A618" s="1">
         <v>45536</v>
       </c>
@@ -11009,7 +11025,7 @@
         <v>151.4666666666667</v>
       </c>
     </row>
-    <row r="619" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="619" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A619" s="1">
         <v>45536</v>
       </c>
@@ -11026,7 +11042,7 @@
         <v>135.6</v>
       </c>
     </row>
-    <row r="620" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="620" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A620" s="1">
         <v>45536</v>
       </c>
@@ -11043,7 +11059,7 @@
         <v>149.65</v>
       </c>
     </row>
-    <row r="621" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="621" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A621" s="1">
         <v>45536</v>
       </c>
@@ -11060,7 +11076,7 @@
         <v>162.9</v>
       </c>
     </row>
-    <row r="622" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="622" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A622" s="1">
         <v>45536</v>
       </c>
@@ -11077,7 +11093,7 @@
         <v>185.4</v>
       </c>
     </row>
-    <row r="623" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="623" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A623" s="1">
         <v>45566</v>
       </c>
@@ -11094,7 +11110,7 @@
         <v>143.9</v>
       </c>
     </row>
-    <row r="624" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="624" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A624" s="1">
         <v>45566</v>
       </c>
@@ -11111,7 +11127,7 @@
         <v>133.6</v>
       </c>
     </row>
-    <row r="625" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="625" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A625" s="1">
         <v>45566</v>
       </c>
@@ -11128,7 +11144,7 @@
         <v>130.9</v>
       </c>
     </row>
-    <row r="626" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="626" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A626" s="1">
         <v>45566</v>
       </c>
@@ -11145,7 +11161,7 @@
         <v>158.9666666666667</v>
       </c>
     </row>
-    <row r="627" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="627" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A627" s="1">
         <v>45566</v>
       </c>
@@ -11162,7 +11178,7 @@
         <v>152.56666666666669</v>
       </c>
     </row>
-    <row r="628" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="628" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A628" s="1">
         <v>45566</v>
       </c>
@@ -11179,7 +11195,7 @@
         <v>147.9</v>
       </c>
     </row>
-    <row r="629" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="629" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A629" s="1">
         <v>45566</v>
       </c>
@@ -11196,7 +11212,7 @@
         <v>147.15</v>
       </c>
     </row>
-    <row r="630" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="630" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A630" s="1">
         <v>45566</v>
       </c>
@@ -11213,7 +11229,7 @@
         <v>167.8</v>
       </c>
     </row>
-    <row r="631" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="631" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A631" s="1">
         <v>45566</v>
       </c>
@@ -11230,7 +11246,7 @@
         <v>184.9</v>
       </c>
     </row>
-    <row r="632" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="632" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A632" s="1">
         <v>45597</v>
       </c>
@@ -11247,7 +11263,7 @@
         <v>140.30000000000001</v>
       </c>
     </row>
-    <row r="633" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="633" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A633" s="1">
         <v>45597</v>
       </c>
@@ -11264,7 +11280,7 @@
         <v>131.30000000000001</v>
       </c>
     </row>
-    <row r="634" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="634" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A634" s="1">
         <v>45597</v>
       </c>
@@ -11281,7 +11297,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="635" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="635" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A635" s="1">
         <v>45597</v>
       </c>
@@ -11298,7 +11314,7 @@
         <v>155.06666666666669</v>
       </c>
     </row>
-    <row r="636" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="636" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A636" s="1">
         <v>45597</v>
       </c>
@@ -11315,7 +11331,7 @@
         <v>152.5333333333333</v>
       </c>
     </row>
-    <row r="637" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="637" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A637" s="1">
         <v>45597</v>
       </c>
@@ -11332,7 +11348,7 @@
         <v>131.6</v>
       </c>
     </row>
-    <row r="638" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="638" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A638" s="1">
         <v>45597</v>
       </c>
@@ -11349,7 +11365,7 @@
         <v>145.30000000000001</v>
       </c>
     </row>
-    <row r="639" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="639" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A639" s="1">
         <v>45597</v>
       </c>
@@ -11366,7 +11382,7 @@
         <v>167.5</v>
       </c>
     </row>
-    <row r="640" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="640" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A640" s="1">
         <v>45597</v>
       </c>
@@ -11383,7 +11399,7 @@
         <v>184.9</v>
       </c>
     </row>
-    <row r="641" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="641" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A641" s="1">
         <v>45627</v>
       </c>
@@ -11400,7 +11416,7 @@
         <v>138.30000000000001</v>
       </c>
     </row>
-    <row r="642" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="642" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A642" s="1">
         <v>45627</v>
       </c>
@@ -11417,7 +11433,7 @@
         <v>125.9</v>
       </c>
     </row>
-    <row r="643" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="643" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A643" s="1">
         <v>45627</v>
       </c>
@@ -11434,7 +11450,7 @@
         <v>128.1</v>
       </c>
     </row>
-    <row r="644" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="644" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A644" s="1">
         <v>45627</v>
       </c>
@@ -11451,7 +11467,7 @@
         <v>156.33333333333329</v>
       </c>
     </row>
-    <row r="645" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="645" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A645" s="1">
         <v>45627</v>
       </c>
@@ -11468,7 +11484,7 @@
         <v>152.0333333333333</v>
       </c>
     </row>
-    <row r="646" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="646" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A646" s="1">
         <v>45627</v>
       </c>
@@ -11485,7 +11501,7 @@
         <v>131.15</v>
       </c>
     </row>
-    <row r="647" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="647" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A647" s="1">
         <v>45627</v>
       </c>
@@ -11502,7 +11518,7 @@
         <v>145.5</v>
       </c>
     </row>
-    <row r="648" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="648" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A648" s="1">
         <v>45627</v>
       </c>
@@ -11519,7 +11535,7 @@
         <v>162.6</v>
       </c>
     </row>
-    <row r="649" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="649" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A649" s="1">
         <v>45627</v>
       </c>
@@ -11536,7 +11552,7 @@
         <v>181.5</v>
       </c>
     </row>
-    <row r="650" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="650" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A650" s="1">
         <v>45658</v>
       </c>
@@ -11553,7 +11569,7 @@
         <v>146.75</v>
       </c>
     </row>
-    <row r="651" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="651" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A651" s="1">
         <v>45658</v>
       </c>
@@ -11570,7 +11586,7 @@
         <v>135.6</v>
       </c>
     </row>
-    <row r="652" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="652" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A652" s="1">
         <v>45658</v>
       </c>
@@ -11587,7 +11603,7 @@
         <v>148.5</v>
       </c>
     </row>
-    <row r="653" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="653" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A653" s="1">
         <v>45658</v>
       </c>
@@ -11604,7 +11620,7 @@
         <v>167.7</v>
       </c>
     </row>
-    <row r="654" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="654" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A654" s="1">
         <v>45658</v>
       </c>
@@ -11621,7 +11637,7 @@
         <v>155.9</v>
       </c>
     </row>
-    <row r="655" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="655" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A655" s="1">
         <v>45658</v>
       </c>
@@ -11638,7 +11654,7 @@
         <v>141.6</v>
       </c>
     </row>
-    <row r="656" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="656" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A656" s="1">
         <v>45658</v>
       </c>
@@ -11655,7 +11671,7 @@
         <v>150.69999999999999</v>
       </c>
     </row>
-    <row r="657" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="657" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A657" s="1">
         <v>45658</v>
       </c>
@@ -11672,7 +11688,7 @@
         <v>167.4</v>
       </c>
     </row>
-    <row r="658" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="658" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A658" s="1">
         <v>45658</v>
       </c>
